--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pthlh-Pth1r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pthlh-Pth1r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Pthlh</t>
+  </si>
+  <si>
+    <t>Pth1r</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Pthlh</t>
-  </si>
-  <si>
-    <t>Pth1r</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,14 +528,14 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
         <v>3</v>
       </c>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3086536666666667</v>
+        <v>1.213294333333333</v>
       </c>
       <c r="H2">
-        <v>0.925961</v>
+        <v>3.639883</v>
       </c>
       <c r="I2">
-        <v>0.2028017163967933</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.2028017163967932</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5880153333333333</v>
+        <v>0.952426</v>
       </c>
       <c r="N2">
-        <v>1.764046</v>
+        <v>2.857278</v>
       </c>
       <c r="O2">
-        <v>0.07240803044867099</v>
+        <v>0.1257690334034173</v>
       </c>
       <c r="P2">
-        <v>0.07240803044867099</v>
+        <v>0.1257690334034173</v>
       </c>
       <c r="Q2">
-        <v>0.1814930886895555</v>
+        <v>1.155573068719333</v>
       </c>
       <c r="R2">
-        <v>1.633437798206</v>
+        <v>10.400157618474</v>
       </c>
       <c r="S2">
-        <v>0.01468447285590174</v>
+        <v>0.1257690334034173</v>
       </c>
       <c r="T2">
-        <v>0.01468447285590174</v>
+        <v>0.1257690334034173</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3086536666666667</v>
+        <v>1.213294333333333</v>
       </c>
       <c r="H3">
-        <v>0.925961</v>
+        <v>3.639883</v>
       </c>
       <c r="I3">
-        <v>0.2028017163967933</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.2028017163967932</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>9.188604999999999</v>
       </c>
       <c r="O3">
-        <v>0.3771606809690962</v>
+        <v>0.4044555584636172</v>
       </c>
       <c r="P3">
-        <v>0.3771606809690963</v>
+        <v>0.4044555584636172</v>
       </c>
       <c r="Q3">
-        <v>0.9453655416005554</v>
+        <v>3.716160792579444</v>
       </c>
       <c r="R3">
-        <v>8.508289874405</v>
+        <v>33.44544713321499</v>
       </c>
       <c r="S3">
-        <v>0.07648883345791607</v>
+        <v>0.4044555584636172</v>
       </c>
       <c r="T3">
-        <v>0.07648883345791607</v>
+        <v>0.4044555584636172</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3086536666666667</v>
+        <v>1.213294333333333</v>
       </c>
       <c r="H4">
-        <v>0.925961</v>
+        <v>3.639883</v>
       </c>
       <c r="I4">
-        <v>0.2028017163967933</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.2028017163967932</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6354796666666667</v>
+        <v>0.724116</v>
       </c>
       <c r="N4">
-        <v>1.906439</v>
+        <v>2.172348</v>
       </c>
       <c r="O4">
-        <v>0.07825277411163532</v>
+        <v>0.09562041501591613</v>
       </c>
       <c r="P4">
-        <v>0.07825277411163534</v>
+        <v>0.09562041501591613</v>
       </c>
       <c r="Q4">
-        <v>0.1961431292087778</v>
+        <v>0.8785658394759999</v>
       </c>
       <c r="R4">
-        <v>1.765288162879</v>
+        <v>7.907092555284</v>
       </c>
       <c r="S4">
-        <v>0.01586979690265019</v>
+        <v>0.09562041501591613</v>
       </c>
       <c r="T4">
-        <v>0.01586979690265019</v>
+        <v>0.09562041501591613</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3086536666666667</v>
+        <v>1.213294333333333</v>
       </c>
       <c r="H5">
-        <v>0.925961</v>
+        <v>3.639883</v>
       </c>
       <c r="I5">
-        <v>0.2028017163967933</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.2028017163967932</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.964972666666667</v>
+        <v>1.056613666666667</v>
       </c>
       <c r="N5">
-        <v>5.894918000000001</v>
+        <v>3.169841</v>
       </c>
       <c r="O5">
-        <v>0.241966140359389</v>
+        <v>0.1395271438804771</v>
       </c>
       <c r="P5">
-        <v>0.241966140359389</v>
+        <v>0.1395271438804771</v>
       </c>
       <c r="Q5">
-        <v>0.6064960184664445</v>
+        <v>1.281983374289222</v>
       </c>
       <c r="R5">
-        <v>5.458464166198</v>
+        <v>11.537850368603</v>
       </c>
       <c r="S5">
-        <v>0.04907114857479147</v>
+        <v>0.1395271438804771</v>
       </c>
       <c r="T5">
-        <v>0.04907114857479147</v>
+        <v>0.1395271438804771</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3086536666666667</v>
+        <v>1.213294333333333</v>
       </c>
       <c r="H6">
-        <v>0.925961</v>
+        <v>3.639883</v>
       </c>
       <c r="I6">
-        <v>0.2028017163967933</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.2028017163967932</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8173073333333333</v>
+        <v>1.205223333333333</v>
       </c>
       <c r="N6">
-        <v>2.451922</v>
+        <v>3.61567</v>
       </c>
       <c r="O6">
-        <v>0.1006429780367214</v>
+        <v>0.1591512344986151</v>
       </c>
       <c r="P6">
-        <v>0.1006429780367214</v>
+        <v>0.1591512344986151</v>
       </c>
       <c r="Q6">
-        <v>0.2522649052268889</v>
+        <v>1.462290640734444</v>
       </c>
       <c r="R6">
-        <v>2.270384147042</v>
+        <v>13.16061576661</v>
       </c>
       <c r="S6">
-        <v>0.02041056868913187</v>
+        <v>0.1591512344986151</v>
       </c>
       <c r="T6">
-        <v>0.02041056868913186</v>
+        <v>0.1591512344986151</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.3086536666666667</v>
+        <v>1.213294333333333</v>
       </c>
       <c r="H7">
-        <v>0.925961</v>
+        <v>3.639883</v>
       </c>
       <c r="I7">
-        <v>0.2028017163967933</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0.2028017163967932</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,400 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.052214666666667</v>
+        <v>0.5715706666666667</v>
       </c>
       <c r="N7">
-        <v>3.156644</v>
+        <v>1.714712</v>
       </c>
       <c r="O7">
-        <v>0.1295693960744871</v>
+        <v>0.07547661473795708</v>
       </c>
       <c r="P7">
-        <v>0.1295693960744871</v>
+        <v>0.07547661473795708</v>
       </c>
       <c r="Q7">
-        <v>0.3247699149871111</v>
+        <v>0.6934834509662222</v>
       </c>
       <c r="R7">
-        <v>2.922929234884</v>
+        <v>6.241351058696</v>
       </c>
       <c r="S7">
-        <v>0.0262768959164019</v>
+        <v>0.07547661473795708</v>
       </c>
       <c r="T7">
-        <v>0.0262768959164019</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1.213294333333333</v>
-      </c>
-      <c r="H8">
-        <v>3.639883</v>
-      </c>
-      <c r="I8">
-        <v>0.7971982836032068</v>
-      </c>
-      <c r="J8">
-        <v>0.7971982836032067</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0.5880153333333333</v>
-      </c>
-      <c r="N8">
-        <v>1.764046</v>
-      </c>
-      <c r="O8">
-        <v>0.07240803044867099</v>
-      </c>
-      <c r="P8">
-        <v>0.07240803044867099</v>
-      </c>
-      <c r="Q8">
-        <v>0.7134356718464444</v>
-      </c>
-      <c r="R8">
-        <v>6.420921046618</v>
-      </c>
-      <c r="S8">
-        <v>0.05772355759276925</v>
-      </c>
-      <c r="T8">
-        <v>0.05772355759276924</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.213294333333333</v>
-      </c>
-      <c r="H9">
-        <v>3.639883</v>
-      </c>
-      <c r="I9">
-        <v>0.7971982836032068</v>
-      </c>
-      <c r="J9">
-        <v>0.7971982836032067</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>3.062868333333333</v>
-      </c>
-      <c r="N9">
-        <v>9.188604999999999</v>
-      </c>
-      <c r="O9">
-        <v>0.3771606809690962</v>
-      </c>
-      <c r="P9">
-        <v>0.3771606809690963</v>
-      </c>
-      <c r="Q9">
-        <v>3.716160792579444</v>
-      </c>
-      <c r="R9">
-        <v>33.44544713321499</v>
-      </c>
-      <c r="S9">
-        <v>0.3006718475111801</v>
-      </c>
-      <c r="T9">
-        <v>0.3006718475111801</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.213294333333333</v>
-      </c>
-      <c r="H10">
-        <v>3.639883</v>
-      </c>
-      <c r="I10">
-        <v>0.7971982836032068</v>
-      </c>
-      <c r="J10">
-        <v>0.7971982836032067</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.6354796666666667</v>
-      </c>
-      <c r="N10">
-        <v>1.906439</v>
-      </c>
-      <c r="O10">
-        <v>0.07825277411163532</v>
-      </c>
-      <c r="P10">
-        <v>0.07825277411163534</v>
-      </c>
-      <c r="Q10">
-        <v>0.7710238785152221</v>
-      </c>
-      <c r="R10">
-        <v>6.939214906637</v>
-      </c>
-      <c r="S10">
-        <v>0.06238297720898513</v>
-      </c>
-      <c r="T10">
-        <v>0.06238297720898513</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.213294333333333</v>
-      </c>
-      <c r="H11">
-        <v>3.639883</v>
-      </c>
-      <c r="I11">
-        <v>0.7971982836032068</v>
-      </c>
-      <c r="J11">
-        <v>0.7971982836032067</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1.964972666666667</v>
-      </c>
-      <c r="N11">
-        <v>5.894918000000001</v>
-      </c>
-      <c r="O11">
-        <v>0.241966140359389</v>
-      </c>
-      <c r="P11">
-        <v>0.241966140359389</v>
-      </c>
-      <c r="Q11">
-        <v>2.384090201621555</v>
-      </c>
-      <c r="R11">
-        <v>21.456811814594</v>
-      </c>
-      <c r="S11">
-        <v>0.1928949917845975</v>
-      </c>
-      <c r="T11">
-        <v>0.1928949917845975</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1.213294333333333</v>
-      </c>
-      <c r="H12">
-        <v>3.639883</v>
-      </c>
-      <c r="I12">
-        <v>0.7971982836032068</v>
-      </c>
-      <c r="J12">
-        <v>0.7971982836032067</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.8173073333333333</v>
-      </c>
-      <c r="N12">
-        <v>2.451922</v>
-      </c>
-      <c r="O12">
-        <v>0.1006429780367214</v>
-      </c>
-      <c r="P12">
-        <v>0.1006429780367214</v>
-      </c>
-      <c r="Q12">
-        <v>0.991634356125111</v>
-      </c>
-      <c r="R12">
-        <v>8.924709205125998</v>
-      </c>
-      <c r="S12">
-        <v>0.08023240934758953</v>
-      </c>
-      <c r="T12">
-        <v>0.08023240934758952</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.213294333333333</v>
-      </c>
-      <c r="H13">
-        <v>3.639883</v>
-      </c>
-      <c r="I13">
-        <v>0.7971982836032068</v>
-      </c>
-      <c r="J13">
-        <v>0.7971982836032067</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.052214666666667</v>
-      </c>
-      <c r="N13">
-        <v>3.156644</v>
-      </c>
-      <c r="O13">
-        <v>0.1295693960744871</v>
-      </c>
-      <c r="P13">
-        <v>0.1295693960744871</v>
-      </c>
-      <c r="Q13">
-        <v>1.276646092516889</v>
-      </c>
-      <c r="R13">
-        <v>11.489814832652</v>
-      </c>
-      <c r="S13">
-        <v>0.1032925001580852</v>
-      </c>
-      <c r="T13">
-        <v>0.1032925001580852</v>
+        <v>0.07547661473795708</v>
       </c>
     </row>
   </sheetData>
